--- a/sputnik/personal/uch/uch1.xlsx
+++ b/sputnik/personal/uch/uch1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Оплачено</t>
   </si>
@@ -30,6 +30,9 @@
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
+    <t>Задолженность по оплате членских взносов за уч№1 на 01.05.2018</t>
+  </si>
+  <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -160,8 +166,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -482,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -499,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -511,52 +526,74 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>43221</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="6">
         <v>10751.58</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>43351</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <v>10751.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>43586</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>10751.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>43586</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
         <v>10598.94</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>43635</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9">
         <v>10598.94</v>
       </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sputnik/personal/uch/uch1.xlsx
+++ b/sputnik/personal/uch/uch1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Оплачено</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
-    <t>Задолженность по оплате членских взносов за уч№1 на 01.05.2018</t>
-  </si>
-  <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -166,30 +160,21 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -497,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -514,10 +499,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -526,74 +511,64 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7"/>
+      <c r="A3" s="8">
+        <v>43221</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10751.58</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>43221</v>
+      <c r="A4" s="8">
+        <v>43351</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
         <v>10751.58</v>
       </c>
-      <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>43351</v>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>43586</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
-        <v>10751.58</v>
-      </c>
+      <c r="C5" s="6">
+        <v>10598.94</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>43586</v>
+      <c r="A6" s="9">
+        <v>43635</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6">
         <v>10598.94</v>
       </c>
-      <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>43635</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9">
-        <v>10598.94</v>
-      </c>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sputnik/personal/uch/uch1.xlsx
+++ b/sputnik/personal/uch/uch1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,22 +24,31 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
+    <t>Задолженность по оплате членских взносов за уч№1 на 01.05.2018</t>
+  </si>
+  <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
     <t>Начислен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -160,21 +169,32 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -499,10 +519,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -511,69 +533,76 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>43221</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
         <v>10751.58</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>43351</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
         <v>10751.58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>43586</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="9">
         <v>10598.94</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>43635</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6">
+      <c r="C7" s="10"/>
+      <c r="D7" s="9">
         <v>10598.94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch1.xlsx
+++ b/sputnik/personal/uch/uch1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Оплачено</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
-  </si>
-  <si>
-    <t>Задолженность по оплате членских взносов за уч№1 на 01.05.2018</t>
   </si>
   <si>
     <t>Оплата членского взноса</t>
@@ -46,9 +43,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,17 +163,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -502,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -519,11 +504,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -533,74 +518,64 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7"/>
+      <c r="A3" s="9">
+        <v>43221</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10751.58</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>43221</v>
+      <c r="A4" s="9">
+        <v>43351</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
         <v>10751.58</v>
       </c>
-      <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>43351</v>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>43586</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
-        <v>10751.58</v>
-      </c>
+      <c r="C5" s="6">
+        <v>10598.94</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>43586</v>
+      <c r="A6" s="10">
+        <v>43635</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6">
         <v>10598.94</v>
       </c>
-      <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>43635</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9">
-        <v>10598.94</v>
-      </c>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch1.xlsx
+++ b/sputnik/personal/uch/uch1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
+  </si>
+  <si>
+    <t>Задолженность по оплате членских взносов за уч№1 на 01.05.2018</t>
   </si>
   <si>
     <t>Оплата членского взноса</t>
@@ -43,6 +46,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -163,8 +169,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -487,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -504,11 +519,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -518,64 +533,74 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>43221</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="6">
         <v>10751.58</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>43351</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <v>10751.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>43586</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>10751.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>43586</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
         <v>10598.94</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>43635</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9">
         <v>10598.94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch1.xlsx
+++ b/sputnik/personal/uch/uch1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №1</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -195,6 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -505,7 +509,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -591,9 +595,15 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="13">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15">
+        <v>11925</v>
+      </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch1.xlsx
+++ b/sputnik/personal/uch/uch1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -199,6 +199,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -509,7 +510,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -607,10 +608,16 @@
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="16">
+        <v>44067</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10">
+        <v>11925</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch1.xlsx
+++ b/sputnik/personal/uch/uch1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
-  </si>
-  <si>
-    <t>Задолженность по оплате членских взносов за уч№1 на 01.05.2018</t>
   </si>
   <si>
     <t>Оплата членского взноса</t>
@@ -49,9 +46,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -172,17 +166,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -507,10 +492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,11 +509,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -538,84 +523,74 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7"/>
+      <c r="A3" s="9">
+        <v>43221</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10751.58</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>43221</v>
+      <c r="A4" s="9">
+        <v>43351</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
         <v>10751.58</v>
       </c>
-      <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>43351</v>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>43586</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
-        <v>10751.58</v>
-      </c>
+      <c r="C5" s="6">
+        <v>10598.94</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>43586</v>
+      <c r="A6" s="10">
+        <v>43635</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6">
         <v>10598.94</v>
       </c>
-      <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>43635</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>43952</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9">
-        <v>10598.94</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C7" s="12">
+        <v>11925</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>43952</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15">
-        <v>11925</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
         <v>44067</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
         <v>11925</v>
       </c>
     </row>

--- a/sputnik/personal/uch/uch1.xlsx
+++ b/sputnik/personal/uch/uch1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,6 +188,9 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -492,10 +498,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -593,6 +599,60 @@
       <c r="D8" s="7">
         <v>11925</v>
       </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>44317</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>12716.82</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>44364</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>12716.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
